--- a/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9-捷豹组.xlsx
+++ b/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9-捷豹组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="98">
   <si>
     <t>No</t>
   </si>
@@ -331,10 +331,6 @@
   </si>
   <si>
     <t>租客登记短信文案修改</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>renter,rentertp,payapi</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -389,6 +385,17 @@
   </si>
   <si>
     <t>PM-1203</t>
+  </si>
+  <si>
+    <t>renter,rentertp,lts</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>许倩</t>
+    <rPh sb="0" eb="1">
+      <t>xu'q</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1044,6 +1051,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1069,12 +1082,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,7 +1101,7 @@
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="个性色4" xfId="11" builtinId="41"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1105,11 +1112,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1452,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1563,14 +1568,14 @@
       <c r="C2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="78" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>72</v>
@@ -1585,7 +1590,7 @@
         <v>42839</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="79" t="s">
         <v>73</v>
       </c>
       <c r="M2" s="58" t="s">
@@ -1625,7 +1630,7 @@
       <c r="C3" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="78" t="s">
         <v>83</v>
       </c>
       <c r="E3" s="58" t="s">
@@ -1647,7 +1652,7 @@
         <v>42839</v>
       </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="79" t="s">
         <v>80</v>
       </c>
       <c r="M3" s="58" t="s">
@@ -1657,7 +1662,7 @@
         <v>75</v>
       </c>
       <c r="O3" s="58" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="P3" s="62" t="s">
         <v>77</v>
@@ -1687,7 +1692,7 @@
       <c r="C4" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="78" t="s">
         <v>84</v>
       </c>
       <c r="E4" s="58" t="s">
@@ -1709,7 +1714,7 @@
         <v>42839</v>
       </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="79" t="s">
         <v>86</v>
       </c>
       <c r="M4" s="58" t="s">
@@ -1749,14 +1754,14 @@
       <c r="C5" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="78" t="s">
         <v>88</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>71</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="58" t="s">
         <v>72</v>
@@ -1771,9 +1776,9 @@
         <v>42839</v>
       </c>
       <c r="K5" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="79" t="s">
         <v>80</v>
       </c>
       <c r="M5" s="58" t="s">
@@ -1795,7 +1800,7 @@
         <v>78</v>
       </c>
       <c r="S5" s="68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
@@ -1813,14 +1818,14 @@
       <c r="C6" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="87" t="s">
-        <v>93</v>
+      <c r="D6" s="78" t="s">
+        <v>92</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>72</v>
@@ -1835,8 +1840,8 @@
         <v>42839</v>
       </c>
       <c r="K6" s="58"/>
-      <c r="L6" s="88" t="s">
-        <v>95</v>
+      <c r="L6" s="79" t="s">
+        <v>94</v>
       </c>
       <c r="M6" s="58" t="s">
         <v>74</v>
@@ -1845,7 +1850,7 @@
         <v>75</v>
       </c>
       <c r="O6" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P6" s="62" t="s">
         <v>77</v>
@@ -1857,7 +1862,7 @@
         <v>78</v>
       </c>
       <c r="S6" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T6" s="56"/>
       <c r="U6" s="56"/>
@@ -6055,19 +6060,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6105,8 +6110,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6118,8 +6123,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6131,8 +6136,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6144,8 +6149,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6157,8 +6162,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6170,8 +6175,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6183,8 +6188,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6196,8 +6201,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6258,36 +6263,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6572,36 +6577,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6886,36 +6891,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7202,36 +7207,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9-捷豹组.xlsx
+++ b/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9-捷豹组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="106">
   <si>
     <t>No</t>
   </si>
@@ -397,12 +397,66 @@
     </rPh>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <t>月付APP</t>
+    <rPh sb="0" eb="1">
+      <t>yue'fu</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter,rentertp,renterembed</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈奇</t>
+    <rPh sb="0" eb="1">
+      <t>chen'qi</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪伟玉</t>
+    <rPh sb="0" eb="1">
+      <t>j'w'y</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP账单结构调整</t>
+    <rPh sb="0" eb="1">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhang'd</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie'g</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao'zh</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈婧</t>
+    <rPh sb="0" eb="1">
+      <t>chen'jing</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM-816</t>
+  </si>
+  <si>
+    <t>PM-1021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -564,6 +618,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -780,7 +841,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,6 +874,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1155,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="12"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -1100,6 +1170,9 @@
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="个性色4" xfId="11" builtinId="41"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1114,7 +1187,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1457,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1870,56 +1943,124 @@
       <c r="W6" s="74"/>
       <c r="X6" s="73"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="51">
         <v>6</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+      <c r="B7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="59">
+        <v>42839</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="59">
+        <v>42839</v>
+      </c>
       <c r="K7" s="58"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="56"/>
+      <c r="L7" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R7" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="68" t="s">
+        <v>104</v>
+      </c>
       <c r="T7" s="56"/>
       <c r="U7" s="56"/>
       <c r="V7" s="67"/>
       <c r="W7" s="74"/>
       <c r="X7" s="73"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A8" s="51">
         <v>7</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="B8" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="59">
+        <v>42839</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="59">
+        <v>42839</v>
+      </c>
       <c r="K8" s="58"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="56"/>
+      <c r="L8" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="59">
+        <v>42840</v>
+      </c>
+      <c r="R8" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="68" t="s">
+        <v>105</v>
+      </c>
       <c r="T8" s="56"/>
       <c r="U8" s="56"/>
       <c r="V8" s="67"/>
